--- a/Plan/Angular_learning_plan_malina.xlsx
+++ b/Plan/Angular_learning_plan_malina.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>计划：</t>
   </si>
@@ -99,16 +99,190 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018/4/2-2018/4/8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2018/4/9-2018/4/15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.HTTP
-2.架构</t>
+    <t>1.路由</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1.主从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>构</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件
+3.服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1.依</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注入
+2.httpClient
+3.路由与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>航
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">测试
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.速</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -124,19 +298,19 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2.引</t>
+      <t xml:space="preserve">单
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.引</t>
     </r>
     <r>
       <rPr>
@@ -187,125 +361,9 @@
   </si>
   <si>
     <r>
-      <t>1.依</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>赖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>注入
-2.httpClient</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>1.路由与</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>导</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>航
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>测试
-3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>速</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>查</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>表</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.路由</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>1.模板与数据</t>
+      <t>1.HTTP
+2.架构
+3.模板与数据</t>
     </r>
     <r>
       <rPr>
@@ -328,90 +386,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>定</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>1.主从</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>结</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>构</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>多个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>件
-3.服</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>务</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -784,7 +758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -813,7 +787,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -821,47 +795,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -872,15 +830,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010040761CF43C6D364FBB7CCBD4A4FAB577" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="824ed2a91e85b040085821046f000c93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9ceec906-4ee2-41aa-ae61-f98d1471b061" xmlns:ns4="0ad5abcd-0232-42c1-8a3f-2bc7b7c03134" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a5778ea0063e0a589b0b01f7fd589d1" ns3:_="" ns4:_="">
     <xsd:import namespace="9ceec906-4ee2-41aa-ae61-f98d1471b061"/>
@@ -1051,21 +1000,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F4626F8-6B63-4359-8812-62AD799E3862}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AC6759C-D20C-44C4-8015-1ACF06086CA2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1084,7 +1034,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B316C0E5-8078-472F-AF00-60563D726F9A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -1099,4 +1049,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F4626F8-6B63-4359-8812-62AD799E3862}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>